--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -39,7 +33,28 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
+  </si>
+  <si>
+    <t>нач пени  70 дн</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
   </si>
 </sst>
 </file>
@@ -47,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,19 +97,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -136,46 +144,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,95 +483,127 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>43830</v>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43618</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>52673</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>43657</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>55525</v>
+        <v>53053</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>1072</v>
-      </c>
-      <c r="E3" s="11">
+        <f t="shared" ref="D3:D6" si="0">SUM(C3,-C2)</f>
+        <v>380</v>
+      </c>
+      <c r="E3" s="3">
         <v>4.49</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>D3*E3</f>
-        <v>4813.2800000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+        <v>1706.2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1706.2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1709.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>43698</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>53462</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="5">
+        <f>D4*E4</f>
+        <v>1836.41</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1836.41</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1836.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43770</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -582,288 +613,145 @@
         <v>54453</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C6)</f>
+        <f t="shared" si="0"/>
         <v>991</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="3">
         <v>4.49</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>D5*E5</f>
         <v>4449.59</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>43698</v>
+      <c r="G5" s="5">
+        <v>4449.59</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43830</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>53462</v>
+        <v>55525</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C7)</f>
-        <v>409</v>
-      </c>
-      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>1072</v>
+      </c>
+      <c r="E6" s="3">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>D6*E6</f>
-        <v>1836.41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>43657</v>
+        <v>4813.2800000000007</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4813.28</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>43907</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>53053</v>
+        <v>57335</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>380</v>
-      </c>
-      <c r="E7" s="11">
+        <f t="shared" ref="D7" si="1">SUM(C7,-C6)</f>
+        <v>1810</v>
+      </c>
+      <c r="E7" s="3">
         <v>4.49</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>D7*E7</f>
-        <v>1706.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>43618</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>52673</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:D15" si="0">SUM(C9,-C10)</f>
-        <v>443</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" ref="F9:F14" si="1">D9*E9</f>
-        <v>2024.5100000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43578</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>52230</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>670</v>
-      </c>
-      <c r="E10" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>3061.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>43537</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>51560</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>1187</v>
-      </c>
-      <c r="E11" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>5424.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43499</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>50373</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(C12,-C13)</f>
-        <v>1671</v>
-      </c>
-      <c r="E12" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>7636.47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43461</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>48702</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>2136</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>9612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43461</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>46566</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>851</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>3829.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43337</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45715</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>2860</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="10">
-        <f>PRODUCT(D15,E15)</f>
-        <v>12870</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43162</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>42855</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+        <v>8126.9000000000005</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8126.9</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(G3:G7)</f>
+        <v>20932.379999999997</v>
+      </c>
+      <c r="H8" s="5">
+        <f>SUM(H3:H7)</f>
+        <v>20937.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>43907</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5">
+        <v>243.81</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(G8,G9)</f>
+        <v>21176.19</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SUM(H8,H9)</f>
+        <v>20937.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5">
+        <f>SUM(H8,-G10)</f>
+        <v>-238.59999999999854</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -45,9 +45,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>остаток</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>нач пени  103 дн</t>
   </si>
 </sst>
 </file>
@@ -167,14 +167,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,70 +687,116 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
+      <c r="A8" s="8">
+        <v>43907</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>243.81</v>
       </c>
       <c r="G8" s="5">
-        <f>SUM(G3:G7)</f>
-        <v>20932.379999999997</v>
+        <v>243.81</v>
       </c>
       <c r="H8" s="5">
-        <f>SUM(H3:H7)</f>
-        <v>20937.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>43907</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="12" t="s">
-        <v>11</v>
+        <v>44012</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>58812</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C7)</f>
+        <v>1477</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>6631.7300000000005</v>
       </c>
       <c r="G9" s="5">
-        <v>243.81</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>6631.73</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6632</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
+      <c r="A10" s="8">
+        <v>44012</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>417.82</v>
+      </c>
       <c r="G10" s="5">
-        <f>SUM(G8,G9)</f>
-        <v>21176.19</v>
+        <v>417.82</v>
       </c>
       <c r="H10" s="5">
-        <f>SUM(H8,H9)</f>
-        <v>20937.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="5">
+        <f>SUM(G2:G10)</f>
+        <v>28225.739999999998</v>
+      </c>
       <c r="H11" s="5">
-        <f>SUM(H8,-G10)</f>
-        <v>-238.59999999999854</v>
+        <f>SUM(H2:H10)</f>
+        <v>27569.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5">
+        <f>SUM(H11,-G11)</f>
+        <v>-656.14999999999782</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>нач пени  103 дн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплачены пени </t>
   </si>
 </sst>
 </file>
@@ -64,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +111,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -174,6 +184,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,7 +718,7 @@
       <c r="F8" s="12">
         <v>243.81</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="13">
         <v>243.81</v>
       </c>
       <c r="H8" s="5">
@@ -759,7 +772,7 @@
       <c r="F10" s="12">
         <v>417.82</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="13">
         <v>417.82</v>
       </c>
       <c r="H10" s="5">
@@ -767,36 +780,90 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="11" t="s">
+      <c r="A11" s="8">
+        <v>44057</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>656.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>44057</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>59264</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(C12,-C9)</f>
+        <v>452</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12*E12</f>
+        <v>2128.92</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2128.92</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2128.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5">
-        <f>SUM(G2:G10)</f>
-        <v>28225.739999999998</v>
-      </c>
-      <c r="H11" s="5">
-        <f>SUM(H2:H10)</f>
-        <v>27569.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="10" t="s">
+      <c r="G13" s="5">
+        <f>SUM(G2:G12)</f>
+        <v>30354.659999999996</v>
+      </c>
+      <c r="H13" s="5">
+        <f>SUM(H2:H12)</f>
+        <v>30354.660000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="5">
-        <f>SUM(H11,-G11)</f>
-        <v>-656.14999999999782</v>
+      <c r="G14" s="9"/>
+      <c r="H14" s="5">
+        <f>SUM(H13,-G13)</f>
+        <v>7.2759576141834259E-12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,35 +834,63 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="11" t="s">
-        <v>11</v>
+      <c r="A13" s="8">
+        <v>44099</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>59793</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(C13,-C12)</f>
+        <v>529</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="5">
+        <f>D13*E13</f>
+        <v>2491.59</v>
       </c>
       <c r="G13" s="5">
-        <f>SUM(G2:G12)</f>
-        <v>30354.659999999996</v>
+        <v>2491.5</v>
       </c>
       <c r="H13" s="5">
-        <f>SUM(H2:H12)</f>
-        <v>30354.660000000003</v>
+        <v>2491.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(G2:G12)</f>
+        <v>30354.659999999996</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H2:H12)</f>
+        <v>30354.660000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="5">
-        <f>SUM(H13,-G13)</f>
+      <c r="G15" s="9"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
         <v>7.2759576141834259E-12</v>
       </c>
     </row>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -862,36 +862,64 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="11" t="s">
-        <v>11</v>
+      <c r="A14" s="8">
+        <v>44153</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>60620</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C13)</f>
+        <v>827</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f>D14*E14</f>
+        <v>3895.17</v>
       </c>
       <c r="G14" s="5">
-        <f>SUM(G2:G12)</f>
-        <v>30354.659999999996</v>
+        <v>3895.17</v>
       </c>
       <c r="H14" s="5">
-        <f>SUM(H2:H12)</f>
-        <v>30354.660000000003</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5">
+        <f>SUM(G2:G14)</f>
+        <v>36741.329999999994</v>
+      </c>
+      <c r="H15" s="5">
+        <f>SUM(H2:H14)</f>
+        <v>36746.160000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="5">
-        <f>SUM(H14,-G14)</f>
-        <v>7.2759576141834259E-12</v>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5">
+        <f>SUM(H15,-G15)</f>
+        <v>4.8300000000090222</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -890,36 +890,64 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="11" t="s">
-        <v>11</v>
+      <c r="A15" s="8">
+        <v>44196</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>61473</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C14)</f>
+        <v>853</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="5">
+        <f>D15*E15</f>
+        <v>4017.63</v>
       </c>
       <c r="G15" s="5">
-        <f>SUM(G2:G14)</f>
-        <v>36741.329999999994</v>
+        <v>4017.63</v>
       </c>
       <c r="H15" s="5">
-        <f>SUM(H2:H14)</f>
-        <v>36746.160000000003</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(G2:G15)</f>
+        <v>40758.959999999992</v>
+      </c>
+      <c r="H16" s="5">
+        <f>SUM(H2:H15)</f>
+        <v>40846.160000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="5">
-        <f>SUM(H15,-G15)</f>
-        <v>4.8300000000090222</v>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5">
+        <f>SUM(H16,-G16)</f>
+        <v>87.200000000011642</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -51,13 +51,13 @@
     <t>нач пени  70 дн</t>
   </si>
   <si>
-    <t>итого с пенями</t>
-  </si>
-  <si>
     <t>нач пени  103 дн</t>
   </si>
   <si>
     <t xml:space="preserve">оплачены пени </t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -181,14 +181,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -709,16 +707,16 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>243.81</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>243.81</v>
       </c>
       <c r="H8" s="5">
@@ -763,16 +761,16 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>12</v>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>417.82</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>417.82</v>
       </c>
       <c r="H10" s="5">
@@ -789,19 +787,19 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>13</v>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>656.15</v>
       </c>
     </row>
@@ -823,7 +821,7 @@
         <v>4.71</v>
       </c>
       <c r="F12" s="5">
-        <f>D12*E12</f>
+        <f t="shared" ref="F12:F17" si="2">D12*E12</f>
         <v>2128.92</v>
       </c>
       <c r="G12" s="5">
@@ -851,7 +849,7 @@
         <v>4.71</v>
       </c>
       <c r="F13" s="5">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>2491.59</v>
       </c>
       <c r="G13" s="5">
@@ -879,7 +877,7 @@
         <v>4.71</v>
       </c>
       <c r="F14" s="5">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>3895.17</v>
       </c>
       <c r="G14" s="5">
@@ -907,7 +905,7 @@
         <v>4.71</v>
       </c>
       <c r="F15" s="5">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>4017.63</v>
       </c>
       <c r="G15" s="5">
@@ -918,36 +916,114 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="11" t="s">
-        <v>11</v>
+      <c r="A16" s="8">
+        <v>44243</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>62560</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C15)</f>
+        <v>1087</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>5119.7699999999995</v>
       </c>
       <c r="G16" s="5">
-        <f>SUM(G2:G15)</f>
-        <v>40758.959999999992</v>
+        <v>5119.7700000000004</v>
       </c>
       <c r="H16" s="5">
-        <f>SUM(H2:H15)</f>
-        <v>40846.160000000003</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10" t="s">
+      <c r="A17" s="8">
+        <v>44284</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>63636</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C16)</f>
+        <v>1076</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>5067.96</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5067.96</v>
+      </c>
+      <c r="H17" s="5">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>64404</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C17)</f>
+        <v>768</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18" si="3">D18*E18</f>
+        <v>3617.2799999999997</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3617.28</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9">
+        <f>SUM(G2:G18)</f>
+        <v>54563.969999999994</v>
+      </c>
+      <c r="H19" s="9">
+        <f>SUM(H2:H18)</f>
+        <v>54866.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="5">
-        <f>SUM(H16,-G16)</f>
-        <v>87.200000000011642</v>
+      <c r="H20" s="13">
+        <f>SUM(H19,-G19)</f>
+        <v>302.1900000000096</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>59793</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C12)</f>
+        <f t="shared" ref="D13:D19" si="3">SUM(C13,-C12)</f>
         <v>529</v>
       </c>
       <c r="E13" s="3">
@@ -870,7 +870,7 @@
         <v>60620</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C13)</f>
+        <f t="shared" si="3"/>
         <v>827</v>
       </c>
       <c r="E14" s="3">
@@ -898,7 +898,7 @@
         <v>61473</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C14)</f>
+        <f t="shared" si="3"/>
         <v>853</v>
       </c>
       <c r="E15" s="3">
@@ -926,7 +926,7 @@
         <v>62560</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C15)</f>
+        <f t="shared" si="3"/>
         <v>1087</v>
       </c>
       <c r="E16" s="3">
@@ -954,7 +954,7 @@
         <v>63636</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C16)</f>
+        <f t="shared" si="3"/>
         <v>1076</v>
       </c>
       <c r="E17" s="3">
@@ -982,14 +982,14 @@
         <v>64404</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(C18,-C17)</f>
+        <f t="shared" si="3"/>
         <v>768</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ref="F18" si="3">D18*E18</f>
+        <f t="shared" ref="F18" si="4">D18*E18</f>
         <v>3617.2799999999997</v>
       </c>
       <c r="G18" s="5">
@@ -1000,30 +1000,58 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10" t="s">
+      <c r="A19" s="8">
+        <v>44355</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>65028</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="3"/>
+        <v>624</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19" si="5">D19*E19</f>
+        <v>2939.04</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2939.04</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="9">
-        <f>SUM(G2:G18)</f>
-        <v>54563.969999999994</v>
-      </c>
-      <c r="H19" s="9">
-        <f>SUM(H2:H18)</f>
-        <v>54866.16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="9">
+        <f>SUM(G2:G19)</f>
+        <v>57503.009999999995</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>57766.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="13">
-        <f>SUM(H19,-G19)</f>
-        <v>302.1900000000096</v>
+      <c r="H21" s="13">
+        <f>SUM(H20,-G20)</f>
+        <v>263.15000000000873</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1028,29 +1028,57 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="8">
+        <v>44393</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>65486</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20" si="6">SUM(C20,-C19)</f>
+        <v>458</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20" si="7">D20*E20</f>
+        <v>2157.1799999999998</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2157.1799999999998</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <f>SUM(G2:G19)</f>
         <v>57503.009999999995</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <f>SUM(H2:H19)</f>
         <v>57766.16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="10" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="13">
-        <f>SUM(H20,-G20)</f>
+      <c r="H22" s="13">
+        <f>SUM(H21,-G21)</f>
         <v>263.15000000000873</v>
       </c>
     </row>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1056,30 +1056,58 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10" t="s">
+      <c r="A21" s="8">
+        <v>44434</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>66233</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21" si="8">SUM(C21,-C20)</f>
+        <v>747</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21" si="9">D21*E21</f>
+        <v>3705.12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3705.12</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="9">
-        <f>SUM(G2:G19)</f>
-        <v>57503.009999999995</v>
-      </c>
-      <c r="H21" s="9">
-        <f>SUM(H2:H19)</f>
-        <v>57766.16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="9">
+        <f>SUM(G2:G21)</f>
+        <v>63365.31</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H2:H21)</f>
+        <v>63436.160000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="13">
-        <f>SUM(H21,-G21)</f>
-        <v>263.15000000000873</v>
+      <c r="H23" s="13">
+        <f>SUM(H22,-G22)</f>
+        <v>70.850000000005821</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -154,6 +160,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -512,103 +521,131 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44434</v>
+        <v>44482</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>66233</v>
+        <v>67263</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C3)</f>
-        <v>747</v>
+        <v>1030</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>3705.12</v>
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>5108.8</v>
       </c>
       <c r="G2" s="5">
-        <v>3705.12</v>
+        <v>5108.8</v>
       </c>
       <c r="H2" s="5">
-        <v>3520</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>44393</v>
+      <c r="A3" s="12">
+        <v>44434</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>65486</v>
+        <v>66233</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C4)</f>
-        <v>458</v>
+        <v>747</v>
       </c>
       <c r="E3" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>2157.1799999999998</v>
+        <f t="shared" ref="F3:F4" si="1">D3*E3</f>
+        <v>3705.12</v>
       </c>
       <c r="G3" s="5">
-        <v>2157.1799999999998</v>
+        <v>3705.12</v>
       </c>
       <c r="H3" s="5">
-        <v>2150</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>44355</v>
+        <v>44393</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>65028</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+        <v>65486</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C5)</f>
+        <v>458</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>2157.1799999999998</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2157.1799999999998</v>
+      </c>
       <c r="H4" s="5">
-        <v>192.3</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <f>SUM(G2:G4)</f>
-        <v>5862.2999999999993</v>
-      </c>
-      <c r="H5" s="8">
-        <f>SUM(H2:H4)</f>
-        <v>5862.3</v>
+      <c r="A5" s="7">
+        <v>44355</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>65028</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>192.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(G2:G5)</f>
+        <v>10971.1</v>
+      </c>
+      <c r="H6" s="8">
+        <f>SUM(H2:H5)</f>
+        <v>10714.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="10">
-        <f>SUM(H5,-G5)</f>
-        <v>9.0949470177292824E-13</v>
+      <c r="H7" s="10">
+        <f>SUM(H6,-G6)</f>
+        <v>-256.80000000000109</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/41ee.xlsx
+++ b/sputnik/personal/ee/41ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,131 +521,159 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44482</v>
+        <v>44536</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>67263</v>
+        <v>68590</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C3)</f>
-        <v>1030</v>
+        <v>1327</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2" si="0">D2*E2</f>
-        <v>5108.8</v>
+        <v>6581.92</v>
       </c>
       <c r="G2" s="5">
         <v>5108.8</v>
       </c>
       <c r="H2" s="5">
-        <v>4852</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>44434</v>
+        <v>44482</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>66233</v>
+        <v>67263</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C4)</f>
-        <v>747</v>
+        <v>1030</v>
       </c>
       <c r="E3" s="3">
         <v>4.96</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F4" si="1">D3*E3</f>
-        <v>3705.12</v>
+        <f t="shared" ref="F3" si="1">D3*E3</f>
+        <v>5108.8</v>
       </c>
       <c r="G3" s="5">
-        <v>3705.12</v>
+        <v>5108.8</v>
       </c>
       <c r="H3" s="5">
-        <v>3520</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44393</v>
+      <c r="A4" s="12">
+        <v>44434</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>65486</v>
+        <v>66233</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(C4,-C5)</f>
-        <v>458</v>
+        <v>747</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>2157.1799999999998</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>3705.12</v>
       </c>
       <c r="G4" s="5">
-        <v>2157.1799999999998</v>
+        <v>3705.12</v>
       </c>
       <c r="H4" s="5">
-        <v>2150</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>44355</v>
+        <v>44393</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>65028</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>65486</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(C5,-C6)</f>
+        <v>458</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>2271.6799999999998</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2271.6799999999998</v>
+      </c>
       <c r="H5" s="5">
-        <v>192.3</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8">
-        <f>SUM(G2:G5)</f>
-        <v>10971.1</v>
-      </c>
-      <c r="H6" s="8">
-        <f>SUM(H2:H5)</f>
-        <v>10714.3</v>
+      <c r="A6" s="7">
+        <v>44355</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>65028</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>192.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <f>SUM(G2:G6)</f>
+        <v>16194.400000000001</v>
+      </c>
+      <c r="H7" s="8">
+        <f>SUM(H2:H6)</f>
+        <v>16964.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="10">
-        <f>SUM(H6,-G6)</f>
-        <v>-256.80000000000109</v>
+      <c r="H8" s="10">
+        <f>SUM(H7,-G7)</f>
+        <v>769.89999999999782</v>
       </c>
     </row>
   </sheetData>
